--- a/Github-flow.xlsx
+++ b/Github-flow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SP462\Documents\GitHub\GIT-Traning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SP462\Desktop\Naviその他資料とか\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="characteristic" localSheetId="0">'Github - flow'!$K$5</definedName>
     <definedName name="outline" localSheetId="0">'Github - flow'!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Github - flow'!$A$1:$R$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Github - flow'!$A$1:$R$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Github - flow</t>
     <phoneticPr fontId="1"/>
@@ -420,6 +420,16 @@
   </si>
   <si>
     <t>github上でpull requestを作成する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流図</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -496,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +530,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,6 +552,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15369</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>407923</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3202828" y="1571999"/>
+          <a:ext cx="5314286" cy="9231754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K15"/>
+  <dimension ref="A3:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -888,9 +947,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" ht="18.75" customHeight="1"/>
+    <row r="21" ht="18.75" customHeight="1"/>
+    <row r="22" ht="18.75" customHeight="1"/>
+    <row r="33" spans="2:3" ht="30.75">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>